--- a/Hydro_veg.xlsx
+++ b/Hydro_veg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D601BFC7-F229-47AC-8308-D47F3539AEF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649C2A70-6292-486E-A6DC-FC75751345B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HYDROSUMM" sheetId="1" r:id="rId1"/>
@@ -947,7 +947,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1234,7 @@
         <v>0.05</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>0.05</v>
@@ -1255,7 +1255,7 @@
         <v>3000</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="N7">
         <v>2605</v>
